--- a/src/main/java/com/qa/testData/IRCTCTestData.xlsx
+++ b/src/main/java/com/qa/testData/IRCTCTestData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA3FF8-EA58-4FF4-A8C6-A2F051090B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,23 +723,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
@@ -773,7 +773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
@@ -790,7 +790,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>70</v>
       </c>
@@ -807,7 +807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>72</v>
       </c>
@@ -831,26 +831,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -962,7 +962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1218,7 +1218,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="E9" s="11"/>
